--- a/domain_files/ifdat/model/OTHER_KEY_DATAMODEL.xlsx
+++ b/domain_files/ifdat/model/OTHER_KEY_DATAMODEL.xlsx
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'MEASURES'!$A$1:$C$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ATTRS'!$A$1:$E$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'ATTR_OBSRVTN_STTS_ENUM'!$A$1:$C$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'DVDND_TYP_ENUM'!$A$1:$C$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'DVDND_TYP_ENUM'!$A$1:$C$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'GEN_CRRNCY_ENUM'!$A$1:$C$42</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -865,7 +865,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20.8" customWidth="1" min="1" max="1"/>
     <col width="40" customWidth="1" min="2" max="2"/>
@@ -1093,11 +1093,11 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20.8" customWidth="1" min="1" max="1"/>
     <col width="14.3" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="7.800000000000001" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="42" customHeight="1">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="C2" s="9" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="C6" s="9" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C10" s="9" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="C12" s="11" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="C14" s="9" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -1392,7 +1392,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20.8" customWidth="1" min="1" max="1"/>
     <col width="18.2" customWidth="1" min="2" max="2"/>
@@ -1621,7 +1621,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20.8" customWidth="1" min="1" max="1"/>
     <col width="18.2" customWidth="1" min="2" max="2"/>
@@ -1970,7 +1970,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="5.2" customWidth="1" min="1" max="1"/>
     <col width="44.2" customWidth="1" min="2" max="2"/>
@@ -2071,7 +2071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2080,10 +2080,10 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="5.2" customWidth="1" min="1" max="1"/>
-    <col width="7.800000000000001" customWidth="1" min="2" max="2"/>
+    <col width="9.1" customWidth="1" min="2" max="2"/>
     <col width="85" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -2104,243 +2104,260 @@
     <row r="2" ht="36" customHeight="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B2" s="9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>Reset</t>
         </is>
       </c>
       <c r="C2" s="15" t="inlineStr">
         <is>
-          <t>Dividend amount paid in cash per share</t>
+          <t>Reset value</t>
         </is>
       </c>
     </row>
     <row r="3" ht="36" customHeight="1">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C3" s="16" t="inlineStr">
         <is>
-          <t>Dividend amount paid in kind per share</t>
+          <t>Dividend amount paid in cash per share</t>
         </is>
       </c>
     </row>
     <row r="4" ht="36" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C4" s="15" t="inlineStr">
         <is>
-          <t>Distributing income - Direct provision</t>
+          <t>Dividend amount paid in kind per share</t>
         </is>
       </c>
     </row>
     <row r="5" ht="36" customHeight="1">
       <c r="A5" s="6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C5" s="16" t="inlineStr">
         <is>
-          <t>Distributing income - Fund entity derivation</t>
+          <t>Distributing income - Direct provision</t>
         </is>
       </c>
     </row>
     <row r="6" ht="36" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C6" s="15" t="inlineStr">
         <is>
-          <t>Distributing income - Benchmark derivation</t>
+          <t>Distributing income - Fund entity derivation</t>
         </is>
       </c>
     </row>
     <row r="7" ht="36" customHeight="1">
       <c r="A7" s="6" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C7" s="16" t="inlineStr">
         <is>
-          <t>Cumulative income - Direct provision</t>
+          <t>Distributing income - Benchmark derivation</t>
         </is>
       </c>
     </row>
     <row r="8" ht="36" customHeight="1">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C8" s="15" t="inlineStr">
         <is>
-          <t>Cumulative income - Fund entity derivation</t>
+          <t>Cumulative income - Direct provision</t>
         </is>
       </c>
     </row>
     <row r="9" ht="36" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B9" s="11" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C9" s="16" t="inlineStr">
         <is>
-          <t>Cumulative income - Benchmark derivation</t>
+          <t>Cumulative income - Fund entity derivation</t>
         </is>
       </c>
     </row>
     <row r="10" ht="36" customHeight="1">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B10" s="9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C10" s="15" t="inlineStr">
         <is>
-          <t>Mixed income - Direct provision</t>
+          <t>Cumulative income - Benchmark derivation</t>
         </is>
       </c>
     </row>
     <row r="11" ht="36" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C11" s="16" t="inlineStr">
         <is>
-          <t>Mixed income - Fund entity derivation</t>
+          <t>Mixed income - Direct provision</t>
         </is>
       </c>
     </row>
     <row r="12" ht="36" customHeight="1">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B12" s="9" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C12" s="15" t="inlineStr">
         <is>
-          <t>Mixed income - Benchmark derivation</t>
+          <t>Mixed income - Fund entity derivation</t>
         </is>
       </c>
     </row>
     <row r="13" ht="36" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B13" s="11" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C13" s="16" t="inlineStr">
         <is>
-          <t>No detailed information available - Direct provision</t>
+          <t>Mixed income - Benchmark derivation</t>
         </is>
       </c>
     </row>
     <row r="14" ht="36" customHeight="1">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>91</t>
         </is>
       </c>
       <c r="B14" s="9" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C14" s="15" t="inlineStr">
         <is>
-          <t>No detailed information available - Fund entity derivation</t>
+          <t>No detailed information available - Direct provision</t>
         </is>
       </c>
     </row>
     <row r="15" ht="36" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="B15" s="11" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="C15" s="16" t="inlineStr">
+        <is>
+          <t>No detailed information available - Fund entity derivation</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="36" customHeight="1">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
           <t>93</t>
         </is>
       </c>
-      <c r="B15" s="11" t="inlineStr">
+      <c r="B16" s="9" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="C15" s="16" t="inlineStr">
+      <c r="C16" s="15" t="inlineStr">
         <is>
           <t>No detailed information available - Benchmark derivation</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C15"/>
+  <autoFilter ref="A1:C16"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2360,7 +2377,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6.5" customWidth="1" min="1" max="1"/>
     <col width="26" customWidth="1" min="2" max="2"/>
